--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>183.7489717497756</v>
+        <v>95.53000334416832</v>
       </c>
       <c r="R2">
-        <v>1653.74074574798</v>
+        <v>859.7700300975149</v>
       </c>
       <c r="S2">
-        <v>0.00398254974366154</v>
+        <v>0.00187228639156683</v>
       </c>
       <c r="T2">
-        <v>0.004448695184961902</v>
+        <v>0.002129761913022832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>9264.418110987419</v>
+        <v>8840.491672106595</v>
       </c>
       <c r="R3">
-        <v>83379.76299888677</v>
+        <v>79564.42504895935</v>
       </c>
       <c r="S3">
-        <v>0.2007957139663903</v>
+        <v>0.173264227708786</v>
       </c>
       <c r="T3">
-        <v>0.2242982469471909</v>
+        <v>0.1970914037113088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>20.07002130792334</v>
+        <v>22.63667669234333</v>
       </c>
       <c r="R4">
-        <v>180.63019177131</v>
+        <v>203.73009023109</v>
       </c>
       <c r="S4">
-        <v>0.0004349948598569468</v>
+        <v>0.0004436547706240577</v>
       </c>
       <c r="T4">
-        <v>0.0004859096968239245</v>
+        <v>0.0005046658658963349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>2893.17736984653</v>
+        <v>3419.250236978997</v>
       </c>
       <c r="R5">
-        <v>17359.06421907918</v>
+        <v>20515.50142187398</v>
       </c>
       <c r="S5">
-        <v>0.06270632528132086</v>
+        <v>0.06701366548678381</v>
       </c>
       <c r="T5">
-        <v>0.04669727440980076</v>
+        <v>0.05081955874865433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H6">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I6">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J6">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>99.39908752241001</v>
+        <v>20.96027906485</v>
       </c>
       <c r="R6">
-        <v>894.59178770169</v>
+        <v>188.64251158365</v>
       </c>
       <c r="S6">
-        <v>0.002154362044929638</v>
+        <v>0.0004107991613396862</v>
       </c>
       <c r="T6">
-        <v>0.002406523627532039</v>
+        <v>0.0004672919760906974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>99.60809838293736</v>
+        <v>54.26892915370366</v>
       </c>
       <c r="R7">
-        <v>896.4728854464361</v>
+        <v>488.420362383333</v>
       </c>
       <c r="S7">
-        <v>0.002158892117349032</v>
+        <v>0.001063613252198074</v>
       </c>
       <c r="T7">
-        <v>0.002411583931271311</v>
+        <v>0.001209880606364996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
-        <v>5022.12916824678</v>
+        <v>5022.129168246779</v>
       </c>
       <c r="R8">
-        <v>45199.16251422102</v>
+        <v>45199.16251422101</v>
       </c>
       <c r="S8">
-        <v>0.1088489314589091</v>
+        <v>0.09842838657215736</v>
       </c>
       <c r="T8">
-        <v>0.1215893707392322</v>
+        <v>0.111964189787354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>10.879716158138</v>
+        <v>12.85950131568867</v>
       </c>
       <c r="R9">
-        <v>97.91744542324201</v>
+        <v>115.735511841198</v>
       </c>
       <c r="S9">
-        <v>0.0002358054599386117</v>
+        <v>0.0002520325392322872</v>
       </c>
       <c r="T9">
-        <v>0.0002634057781415576</v>
+        <v>0.0002866918786127375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
         <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J10">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>1568.356510247046</v>
+        <v>1942.416438538994</v>
       </c>
       <c r="R10">
-        <v>9410.139061482276</v>
+        <v>11654.49863123397</v>
       </c>
       <c r="S10">
-        <v>0.03399234160809343</v>
+        <v>0.03806929485315751</v>
       </c>
       <c r="T10">
-        <v>0.02531402847772473</v>
+        <v>0.02886970519007693</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
         <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J11">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>53.883044867262</v>
+        <v>11.90716905467</v>
       </c>
       <c r="R11">
-        <v>484.947403805358</v>
+        <v>107.16452149203</v>
       </c>
       <c r="S11">
-        <v>0.001167853645548793</v>
+        <v>0.0002333678404974665</v>
       </c>
       <c r="T11">
-        <v>0.001304547394031158</v>
+        <v>0.0002654604234985439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>149.498150205404</v>
+        <v>108.1164672095012</v>
       </c>
       <c r="R12">
-        <v>1345.483351848636</v>
+        <v>973.048204885511</v>
       </c>
       <c r="S12">
-        <v>0.003240202185126695</v>
+        <v>0.002118967687369893</v>
       </c>
       <c r="T12">
-        <v>0.003619458082656206</v>
+        <v>0.002410366648934427</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>7537.529909055146</v>
+        <v>10005.26216396839</v>
       </c>
       <c r="R13">
-        <v>67837.76918149632</v>
+        <v>90047.35947571554</v>
       </c>
       <c r="S13">
-        <v>0.1633673784473051</v>
+        <v>0.1960924896670179</v>
       </c>
       <c r="T13">
-        <v>0.1824890375908234</v>
+        <v>0.2230589923655549</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H14">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I14">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J14">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>16.328967893238</v>
+        <v>25.61915029482956</v>
       </c>
       <c r="R14">
-        <v>146.960711039142</v>
+        <v>230.572352653466</v>
       </c>
       <c r="S14">
-        <v>0.0003539117867066482</v>
+        <v>0.0005021080789425394</v>
       </c>
       <c r="T14">
-        <v>0.0003953360944025751</v>
+        <v>0.0005711576324912423</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H15">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I15">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J15">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>2353.888900108746</v>
+        <v>3869.750268882265</v>
       </c>
       <c r="R15">
-        <v>14123.33340065247</v>
+        <v>23218.50161329359</v>
       </c>
       <c r="S15">
-        <v>0.05101786174075436</v>
+        <v>0.07584298663831919</v>
       </c>
       <c r="T15">
-        <v>0.03799289910261982</v>
+        <v>0.0575152409160427</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H16">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I16">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J16">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>80.871090462162</v>
+        <v>23.72188050755667</v>
       </c>
       <c r="R16">
-        <v>727.839814159458</v>
+        <v>213.49692456801</v>
       </c>
       <c r="S16">
-        <v>0.001752788804871806</v>
+        <v>0.0004649236104039567</v>
       </c>
       <c r="T16">
-        <v>0.001957947450348537</v>
+        <v>0.0005288595817196425</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>60.59199895675001</v>
+        <v>37.6250888334965</v>
       </c>
       <c r="R17">
-        <v>363.5519937405001</v>
+        <v>225.750533000979</v>
       </c>
       <c r="S17">
-        <v>0.001313262586534391</v>
+        <v>0.0007374116962045404</v>
       </c>
       <c r="T17">
-        <v>0.000977984008796463</v>
+        <v>0.000559213359618452</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H18">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I18">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J18">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>3054.980973065125</v>
+        <v>3481.882893863647</v>
       </c>
       <c r="R18">
-        <v>18329.88583839075</v>
+        <v>20891.29736318188</v>
       </c>
       <c r="S18">
-        <v>0.06621323414935655</v>
+        <v>0.06824119890087074</v>
       </c>
       <c r="T18">
-        <v>0.04930886239564003</v>
+        <v>0.05175045405187319</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H19">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I19">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J19">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>6.618174232875001</v>
+        <v>8.915596583578999</v>
       </c>
       <c r="R19">
-        <v>39.70904539725</v>
+        <v>53.493579501474</v>
       </c>
       <c r="S19">
-        <v>0.0001434413909566595</v>
+        <v>0.0001747362040383901</v>
       </c>
       <c r="T19">
-        <v>0.0001068205155568565</v>
+        <v>0.0001325105368008425</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H20">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I20">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J20">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>954.037448515125</v>
+        <v>1346.69307449723</v>
       </c>
       <c r="R20">
-        <v>3816.1497940605</v>
+        <v>5386.77229798892</v>
       </c>
       <c r="S20">
-        <v>0.02067767541688059</v>
+        <v>0.02639375095502264</v>
       </c>
       <c r="T20">
-        <v>0.01026574888330016</v>
+        <v>0.0133437338739082</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H21">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I21">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J21">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>32.777268629625</v>
+        <v>8.255336901315001</v>
       </c>
       <c r="R21">
-        <v>196.66361177775</v>
+        <v>49.53202140789</v>
       </c>
       <c r="S21">
-        <v>0.000710409976914594</v>
+        <v>0.0001617958169900461</v>
       </c>
       <c r="T21">
-        <v>0.0005290408820260283</v>
+        <v>0.0001226972434216983</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H22">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I22">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J22">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N22">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O22">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P22">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q22">
-        <v>186.9181937406622</v>
+        <v>97.57960123165556</v>
       </c>
       <c r="R22">
-        <v>1682.26374366596</v>
+        <v>878.2164110849001</v>
       </c>
       <c r="S22">
-        <v>0.00405123902179584</v>
+        <v>0.00191245632874459</v>
       </c>
       <c r="T22">
-        <v>0.004525424336024213</v>
+        <v>0.002175455992002981</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H23">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I23">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J23">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>183.180478</v>
       </c>
       <c r="O23">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P23">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q23">
-        <v>9424.206747247616</v>
+        <v>9030.164575081577</v>
       </c>
       <c r="R23">
-        <v>84817.86072522854</v>
+        <v>81271.4811757342</v>
       </c>
       <c r="S23">
-        <v>0.2042589507198708</v>
+        <v>0.1769816147354527</v>
       </c>
       <c r="T23">
-        <v>0.2281668451220443</v>
+        <v>0.2013200032145794</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H24">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I24">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J24">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N24">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O24">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P24">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q24">
-        <v>20.41618026751333</v>
+        <v>23.12234698548889</v>
       </c>
       <c r="R24">
-        <v>183.74562240762</v>
+        <v>208.1011228694</v>
       </c>
       <c r="S24">
-        <v>0.0004424974611648802</v>
+        <v>0.0004531733914637188</v>
       </c>
       <c r="T24">
-        <v>0.0004942904549968546</v>
+        <v>0.0005154934808489014</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H25">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I25">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J25">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N25">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O25">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P25">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q25">
-        <v>2943.07762918806</v>
+        <v>3492.610310434183</v>
       </c>
       <c r="R25">
-        <v>17658.46577512836</v>
+        <v>20955.6618626051</v>
       </c>
       <c r="S25">
-        <v>0.06378785658545179</v>
+        <v>0.06845144484830702</v>
       </c>
       <c r="T25">
-        <v>0.047502688598325</v>
+        <v>0.05190989326773747</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H26">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I26">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J26">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N26">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O26">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P26">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q26">
-        <v>101.11347955982</v>
+        <v>21.40998221766667</v>
       </c>
       <c r="R26">
-        <v>910.02131603838</v>
+        <v>192.689839959</v>
       </c>
       <c r="S26">
-        <v>0.002191519540311002</v>
+        <v>0.0004196128645092544</v>
       </c>
       <c r="T26">
-        <v>0.002448030295729066</v>
+        <v>0.0004773177335858026</v>
       </c>
     </row>
   </sheetData>
